--- a/Presentation/Visitor.API/FormatFiles/Template_Worker.xlsx
+++ b/Presentation/Visitor.API/FormatFiles/Template_Worker.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="78">
   <si>
     <t>Address</t>
   </si>
@@ -239,6 +239,15 @@
   </si>
   <si>
     <t>PUNE</t>
+  </si>
+  <si>
+    <t>AadharNumber</t>
+  </si>
+  <si>
+    <t>A1001</t>
+  </si>
+  <si>
+    <t>A1002</t>
   </si>
 </sst>
 </file>
@@ -308,7 +317,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -330,6 +339,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -636,10 +651,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AI3"/>
+  <dimension ref="A1:AJ3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AH3" sqref="AH3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -674,11 +689,12 @@
     <col min="31" max="31" width="26.28515625" customWidth="1"/>
     <col min="32" max="32" width="24.42578125" customWidth="1"/>
     <col min="33" max="33" width="21.7109375" customWidth="1"/>
-    <col min="34" max="34" width="17.5703125" customWidth="1"/>
-    <col min="35" max="35" width="12.42578125" customWidth="1"/>
+    <col min="34" max="34" width="21.7109375" style="10" customWidth="1"/>
+    <col min="35" max="35" width="17.5703125" customWidth="1"/>
+    <col min="36" max="36" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:36">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -778,14 +794,17 @@
       <c r="AG1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AH1" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:35">
+    <row r="2" spans="1:36">
       <c r="A2" s="8" t="s">
         <v>52</v>
       </c>
@@ -885,14 +904,17 @@
       <c r="AG2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AH2" t="b">
+      <c r="AH2" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI2" t="b">
         <v>0</v>
       </c>
-      <c r="AI2" t="b">
+      <c r="AJ2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:35">
+    <row r="3" spans="1:36">
       <c r="A3" s="8" t="s">
         <v>53</v>
       </c>
@@ -971,16 +993,19 @@
       <c r="AC3" t="b">
         <v>0</v>
       </c>
-      <c r="AH3" t="b">
+      <c r="AH3" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI3" t="b">
         <v>0</v>
       </c>
-      <c r="AI3" t="b">
+      <c r="AJ3" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH1:AI1048576 AC1:AC1048576 V1:W1048576 T1:T1048576 R1:R1048576 P1:P1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI1:AJ1048576 AC1:AC1048576 V1:W1048576 T1:T1048576 R1:R1048576 P1:P1048576">
       <formula1>"True,False"</formula1>
     </dataValidation>
   </dataValidations>
